--- a/data/trans_orig/P36B16-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B16-Edad-trans_orig.xlsx
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14517</v>
+        <v>12591</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006608427713775935</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03559940577002483</v>
+        <v>0.03087672626726431</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10621</v>
+        <v>10594</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.009471099402731931</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02929789192071919</v>
+        <v>0.02922458864556961</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -783,19 +783,19 @@
         <v>6128</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>17532</v>
+        <v>16799</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.007955624884968492</v>
+        <v>0.007955624884968491</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002196798720692466</v>
+        <v>0.002195767388184698</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02275927278316671</v>
+        <v>0.02180845095030882</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>23392</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9365</v>
+        <v>9722</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>44200</v>
+        <v>44369</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.05736267998697115</v>
+        <v>0.05736267998697114</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02296519841092868</v>
+        <v>0.02384058261415141</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1083884532063562</v>
+        <v>0.1088028015852013</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>14</v>
@@ -833,19 +833,19 @@
         <v>31773</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>18603</v>
+        <v>17458</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>52034</v>
+        <v>50943</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.08764803958487126</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05131640985134365</v>
+        <v>0.04815951770451712</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1435374594689783</v>
+        <v>0.1405273574606348</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>22</v>
@@ -854,19 +854,19 @@
         <v>55166</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>35430</v>
+        <v>34957</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>84795</v>
+        <v>81495</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07161522279034098</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04599436635187636</v>
+        <v>0.04538021265636193</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1100792337417658</v>
+        <v>0.105795857716324</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>227481</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>193184</v>
+        <v>196602</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>259934</v>
+        <v>258095</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.55783418074948</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4737295726941044</v>
+        <v>0.4821128355866928</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.637416061621261</v>
+        <v>0.6329059743377511</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>125</v>
@@ -904,19 +904,19 @@
         <v>204638</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>176798</v>
+        <v>179585</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>229905</v>
+        <v>231566</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5645005255516058</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4877018409142524</v>
+        <v>0.4953915247582131</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6341987648154279</v>
+        <v>0.638781206970002</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>224</v>
@@ -925,19 +925,19 @@
         <v>432119</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>394710</v>
+        <v>389301</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>473416</v>
+        <v>472233</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.5609714182099494</v>
+        <v>0.5609714182099493</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.512407646183492</v>
+        <v>0.5053849754548695</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6145829084555632</v>
+        <v>0.6130467503943879</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>140169</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>111148</v>
+        <v>109188</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>175051</v>
+        <v>171350</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3437264562685923</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2725608026668752</v>
+        <v>0.2677537994155552</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.429265424240064</v>
+        <v>0.4201891568615725</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>59</v>
@@ -975,19 +975,19 @@
         <v>107998</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>85031</v>
+        <v>85182</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>133179</v>
+        <v>134042</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2979156585663995</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.234561879971547</v>
+        <v>0.2349764758663769</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3673773956828627</v>
+        <v>0.3697577631281204</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>118</v>
@@ -996,19 +996,19 @@
         <v>248167</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>211528</v>
+        <v>208482</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>286738</v>
+        <v>288971</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.3221675128128808</v>
+        <v>0.3221675128128807</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2746033212440641</v>
+        <v>0.2706485541233657</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3722401551753454</v>
+        <v>0.3751388497052626</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>14056</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5338</v>
+        <v>5427</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>32489</v>
+        <v>31462</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03446825528118072</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01308969982039945</v>
+        <v>0.0133079623828027</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.07967119684313503</v>
+        <v>0.07715167878474487</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>7</v>
@@ -1046,19 +1046,19 @@
         <v>14669</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>6867</v>
+        <v>6032</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>31245</v>
+        <v>28893</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.04046467689439145</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01894273219767964</v>
+        <v>0.01664014928727516</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.08619022393681974</v>
+        <v>0.07970290039998937</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>12</v>
@@ -1067,19 +1067,19 @@
         <v>28725</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>16516</v>
+        <v>15762</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>50922</v>
+        <v>48660</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.03729022130186036</v>
+        <v>0.03729022130186035</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02144086229169423</v>
+        <v>0.02046223716996096</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.06610590924783301</v>
+        <v>0.06316976034265175</v>
       </c>
     </row>
     <row r="9">
@@ -1171,19 +1171,19 @@
         <v>5695</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1472</v>
+        <v>1514</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15223</v>
+        <v>16643</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01194170872109937</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003085659615262263</v>
+        <v>0.003175104253458612</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03192133128995618</v>
+        <v>0.03489880462679238</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -1192,19 +1192,19 @@
         <v>5278</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1773</v>
+        <v>1518</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14477</v>
+        <v>13377</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01057095215539586</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003550543966824012</v>
+        <v>0.003039607568333329</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02899292327134085</v>
+        <v>0.02679091770673056</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>7</v>
@@ -1213,19 +1213,19 @@
         <v>10973</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4428</v>
+        <v>4560</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>22176</v>
+        <v>22800</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0112405792244329</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004536037059170747</v>
+        <v>0.004670836047909956</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02271644030843922</v>
+        <v>0.02335555979907276</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>33066</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>21018</v>
+        <v>21734</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>49436</v>
+        <v>51584</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.06933594093394654</v>
+        <v>0.06933594093394656</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.04407257413417925</v>
+        <v>0.04557462527576688</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.103663220200915</v>
+        <v>0.1081674753826094</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>32</v>
@@ -1263,19 +1263,19 @@
         <v>38031</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>26478</v>
+        <v>26183</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>52564</v>
+        <v>52737</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.07616514393087989</v>
+        <v>0.07616514393087991</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0530275169429363</v>
+        <v>0.05243693201637557</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1052695787287821</v>
+        <v>0.1056160252576895</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>52</v>
@@ -1284,19 +1284,19 @@
         <v>71097</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>54899</v>
+        <v>51941</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>95547</v>
+        <v>93242</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.07282901605732969</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.05623693030608603</v>
+        <v>0.05320634342821811</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.09787519214344791</v>
+        <v>0.09551384092340857</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>272043</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>243385</v>
+        <v>241651</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>300382</v>
+        <v>298781</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5704525149431723</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.510359466054949</v>
+        <v>0.5067232297463965</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6298778019638271</v>
+        <v>0.6265190296190244</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>274</v>
@@ -1334,19 +1334,19 @@
         <v>299028</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>275640</v>
+        <v>274733</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>320219</v>
+        <v>319950</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.5988648584991725</v>
+        <v>0.5988648584991726</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5520251444089669</v>
+        <v>0.5502097435771789</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6413039836753932</v>
+        <v>0.6407651843065937</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>448</v>
@@ -1355,19 +1355,19 @@
         <v>571072</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>533427</v>
+        <v>532591</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>607758</v>
+        <v>606585</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5849851698543013</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5464232899008198</v>
+        <v>0.5455666422599322</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6225650686792855</v>
+        <v>0.6213630832355919</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>151702</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>127887</v>
+        <v>127046</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>178532</v>
+        <v>177716</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.318106904637373</v>
+        <v>0.3181069046373728</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2681684378816012</v>
+        <v>0.2664051137678907</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3743671626314544</v>
+        <v>0.3726554809697636</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>142</v>
@@ -1405,19 +1405,19 @@
         <v>150756</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>131490</v>
+        <v>130351</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>173861</v>
+        <v>172555</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.301919870501711</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2633348211845291</v>
+        <v>0.261055247028011</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3481914912370029</v>
+        <v>0.3455765783734202</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>239</v>
@@ -1426,19 +1426,19 @@
         <v>302458</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>266108</v>
+        <v>268628</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>335796</v>
+        <v>337149</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3098273841302179</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2725913943332079</v>
+        <v>0.2751723405637143</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3439770546949695</v>
+        <v>0.3453626135846904</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>14384</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6433</v>
+        <v>6395</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>29169</v>
+        <v>29261</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.03016293076440881</v>
+        <v>0.03016293076440882</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01348980019630138</v>
+        <v>0.01341011417167702</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.06116497239358173</v>
+        <v>0.06135768199743091</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>6</v>
@@ -1476,19 +1476,19 @@
         <v>6231</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2153</v>
+        <v>2176</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>12439</v>
+        <v>12281</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01247917491284076</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.004312805011501733</v>
+        <v>0.004357868458010267</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02491152042383414</v>
+        <v>0.0245955972487372</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>14</v>
@@ -1497,19 +1497,19 @@
         <v>20616</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>11371</v>
+        <v>11343</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>35447</v>
+        <v>36746</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02111785073371834</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01164833587683555</v>
+        <v>0.01161886921220675</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03631027758325758</v>
+        <v>0.03764117857865987</v>
       </c>
     </row>
     <row r="15">
@@ -1601,19 +1601,19 @@
         <v>6006</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2231</v>
+        <v>2266</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13935</v>
+        <v>12769</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.009674641299261627</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003593389006492647</v>
+        <v>0.003650360592173034</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02244496009901505</v>
+        <v>0.02056774047122284</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -1622,19 +1622,19 @@
         <v>8605</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4584</v>
+        <v>4618</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>15221</v>
+        <v>15393</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01385051434036428</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.007378608318522915</v>
+        <v>0.007433185602832579</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0245015005800922</v>
+        <v>0.0247776997713722</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>16</v>
@@ -1643,19 +1643,19 @@
         <v>14611</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8359</v>
+        <v>8321</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>23297</v>
+        <v>23388</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0117632580660041</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.006729527869064062</v>
+        <v>0.006699200161137758</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01875611615411218</v>
+        <v>0.01882941050374806</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>41215</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>29275</v>
+        <v>29949</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>56391</v>
+        <v>55949</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06638557902817252</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04715447423016685</v>
+        <v>0.04823931067207345</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09083125494038312</v>
+        <v>0.09011898527401045</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>59</v>
@@ -1693,19 +1693,19 @@
         <v>47384</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>36814</v>
+        <v>36544</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>60636</v>
+        <v>60654</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.07627246463330793</v>
+        <v>0.07627246463330795</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05925877967811937</v>
+        <v>0.05882438451510274</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.09760470378866323</v>
+        <v>0.09763358401374519</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>95</v>
@@ -1714,19 +1714,19 @@
         <v>88598</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>72469</v>
+        <v>70211</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>107895</v>
+        <v>106257</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.07133063239605411</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05834467682920913</v>
+        <v>0.05652699046356976</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08686674875402754</v>
+        <v>0.08554794639976229</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>363187</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>335987</v>
+        <v>337268</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>388494</v>
+        <v>389148</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5849962435687313</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5411840240864717</v>
+        <v>0.5432466487293105</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6257588191336886</v>
+        <v>0.6268114657027506</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>505</v>
@@ -1764,19 +1764,19 @@
         <v>362663</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>342255</v>
+        <v>341116</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>384825</v>
+        <v>382883</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.583772155760667</v>
+        <v>0.5837721557606671</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.550922153167872</v>
+        <v>0.5490884536584237</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6194461068129704</v>
+        <v>0.6163195017990968</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>825</v>
@@ -1785,19 +1785,19 @@
         <v>725851</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>692851</v>
+        <v>690480</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>757301</v>
+        <v>757324</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.584384000261829</v>
+        <v>0.5843840002618291</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5578156990689551</v>
+        <v>0.5559070454159432</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.6097046275577038</v>
+        <v>0.6097230514572697</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>201718</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>177204</v>
+        <v>178406</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>226757</v>
+        <v>227667</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3249131818387806</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2854272606485067</v>
+        <v>0.2873638274247725</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3652432810708727</v>
+        <v>0.3667094598623711</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>253</v>
@@ -1835,19 +1835,19 @@
         <v>190208</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>169973</v>
+        <v>170114</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>208527</v>
+        <v>211210</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3061737696005302</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2736020339913585</v>
+        <v>0.2738296652537569</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3356624776305356</v>
+        <v>0.3399815778137271</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>430</v>
@@ -1856,19 +1856,19 @@
         <v>391926</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>362367</v>
+        <v>360812</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>421974</v>
+        <v>426766</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.3155404230852304</v>
+        <v>0.3155404230852305</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2917427991509554</v>
+        <v>0.2904909830340721</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.339732189810752</v>
+        <v>0.3435904705073826</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>8711</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4070</v>
+        <v>3933</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>17362</v>
+        <v>16407</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.01403035426505408</v>
+        <v>0.01403035426505409</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.006555430756100967</v>
+        <v>0.006334864534197196</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0279654015734935</v>
+        <v>0.02642754682156647</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>17</v>
@@ -1906,19 +1906,19 @@
         <v>12382</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>7682</v>
+        <v>7527</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>19950</v>
+        <v>20846</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.01993109566513053</v>
+        <v>0.01993109566513052</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01236595940671221</v>
+        <v>0.01211567488948852</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03211285107311407</v>
+        <v>0.03355496373612519</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>25</v>
@@ -1927,19 +1927,19 @@
         <v>21093</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>13212</v>
+        <v>14028</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>30877</v>
+        <v>30591</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.01698168619088217</v>
+        <v>0.01698168619088218</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01063680104696054</v>
+        <v>0.01129360519112719</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02485926597130796</v>
+        <v>0.02462897450392669</v>
       </c>
     </row>
     <row r="21">
@@ -2031,19 +2031,19 @@
         <v>6529</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2900</v>
+        <v>2442</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>14186</v>
+        <v>13936</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.009318701869101982</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.004139879751976841</v>
+        <v>0.00348589657808227</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0202473955506536</v>
+        <v>0.01989080752461175</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>12</v>
@@ -2052,19 +2052,19 @@
         <v>8384</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4279</v>
+        <v>4700</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>13218</v>
+        <v>14590</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01138402832307499</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.005809898392936618</v>
+        <v>0.006381152350357391</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01794780058679342</v>
+        <v>0.01980944590555675</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>18</v>
@@ -2073,19 +2073,19 @@
         <v>14913</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>8672</v>
+        <v>8978</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>22259</v>
+        <v>23495</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.010377145776153</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.006034377476508783</v>
+        <v>0.006246953467757759</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01548835790712438</v>
+        <v>0.01634905805482223</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>60061</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>45207</v>
+        <v>46013</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>76291</v>
+        <v>76768</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.08572584196327004</v>
+        <v>0.08572584196327003</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.06452486020138795</v>
+        <v>0.06567440281014196</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1088917038105724</v>
+        <v>0.1095721916364131</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>95</v>
@@ -2123,19 +2123,19 @@
         <v>62891</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>51528</v>
+        <v>51668</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>75575</v>
+        <v>76541</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.08539206093337781</v>
+        <v>0.0853920609333778</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.06996449328528734</v>
+        <v>0.07015393464699006</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1026150728984521</v>
+        <v>0.1039254036138006</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>149</v>
@@ -2144,19 +2144,19 @@
         <v>122952</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>103552</v>
+        <v>105321</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>143381</v>
+        <v>144192</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.08555478498741081</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.07205543967555057</v>
+        <v>0.07328638475155967</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.09977052551527782</v>
+        <v>0.100334218887625</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>420927</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>393085</v>
+        <v>393781</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>444877</v>
+        <v>448039</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.6007942032355019</v>
+        <v>0.6007942032355018</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5610556321322421</v>
+        <v>0.5620487980940243</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.6349790147428913</v>
+        <v>0.6394924022287629</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>691</v>
@@ -2194,19 +2194,19 @@
         <v>437449</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>416459</v>
+        <v>416362</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>457645</v>
+        <v>458662</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5939606821967551</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5654603926407522</v>
+        <v>0.5653293533902836</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6213818785094332</v>
+        <v>0.622763797228869</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1095</v>
@@ -2215,19 +2215,19 @@
         <v>858376</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>824125</v>
+        <v>822192</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>894058</v>
+        <v>889495</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.5972921424870652</v>
+        <v>0.5972921424870653</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5734588426965477</v>
+        <v>0.5721143115284869</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.6221212999429143</v>
+        <v>0.6189465072564936</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>196662</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>174443</v>
+        <v>171754</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>220121</v>
+        <v>221767</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2806981525389958</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2489846947147575</v>
+        <v>0.2451462696295897</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3141813259593597</v>
+        <v>0.3165316373585489</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>323</v>
@@ -2265,19 +2265,19 @@
         <v>215222</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>194813</v>
+        <v>197317</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>234245</v>
+        <v>235672</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2922253071968109</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2645133799232027</v>
+        <v>0.2679133941724982</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3180534664270518</v>
+        <v>0.3199918756386821</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>509</v>
@@ -2286,19 +2286,19 @@
         <v>411884</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>380391</v>
+        <v>383380</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>443043</v>
+        <v>445166</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.2866056189299523</v>
+        <v>0.2866056189299524</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2646913680613579</v>
+        <v>0.2667713567428642</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3082870301594285</v>
+        <v>0.309764121177014</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>16439</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>9184</v>
+        <v>8994</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>26068</v>
+        <v>26709</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02346310039313039</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01310813668763506</v>
+        <v>0.01283769336648155</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03720752954416238</v>
+        <v>0.03812279836522323</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>19</v>
@@ -2336,19 +2336,19 @@
         <v>12548</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>7715</v>
+        <v>8070</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>19509</v>
+        <v>19267</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01703792134998115</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01047484313245601</v>
+        <v>0.01095743533950722</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02648889571228075</v>
+        <v>0.02616047319971131</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>34</v>
@@ -2357,19 +2357,19 @@
         <v>28987</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>20394</v>
+        <v>20713</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>41361</v>
+        <v>41007</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.02017030781941841</v>
+        <v>0.02017030781941842</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01419068933867962</v>
+        <v>0.01441277938665721</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02878033526659715</v>
+        <v>0.02853428871815079</v>
       </c>
     </row>
     <row r="27">
@@ -2461,19 +2461,19 @@
         <v>5393</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2035</v>
+        <v>1929</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>11680</v>
+        <v>11810</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.008851033989556521</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.003340192258467762</v>
+        <v>0.003164904740733168</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01916825809667836</v>
+        <v>0.01938067121712551</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>13</v>
@@ -2482,19 +2482,19 @@
         <v>7954</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>4559</v>
+        <v>4549</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>13251</v>
+        <v>13412</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01308872007000377</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.007502875500253089</v>
+        <v>0.007485573902959897</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02180586226915915</v>
+        <v>0.02207150818153022</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>19</v>
@@ -2503,19 +2503,19 @@
         <v>13347</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>8203</v>
+        <v>8412</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>21076</v>
+        <v>20624</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.01096697613318928</v>
+        <v>0.01096697613318929</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.006740006847960565</v>
+        <v>0.00691187185100244</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01731775888983203</v>
+        <v>0.01694622565595091</v>
       </c>
     </row>
     <row r="29">
@@ -2532,19 +2532,19 @@
         <v>58559</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>46032</v>
+        <v>46029</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>74198</v>
+        <v>74184</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.09610071750574896</v>
+        <v>0.09610071750574894</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.07554389090072758</v>
+        <v>0.07553836141423666</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.121766540564263</v>
+        <v>0.121743048676379</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>115</v>
@@ -2553,19 +2553,19 @@
         <v>69974</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>58055</v>
+        <v>58751</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>82042</v>
+        <v>83895</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1151486742271539</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.09553477174595947</v>
+        <v>0.09668032063347023</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1350090554413061</v>
+        <v>0.1380576801953186</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>178</v>
@@ -2574,19 +2574,19 @@
         <v>128532</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>111458</v>
+        <v>111300</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>146550</v>
+        <v>148005</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1056116566389893</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0915824023487499</v>
+        <v>0.09145255538068486</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1204166544307199</v>
+        <v>0.1216115198973187</v>
       </c>
     </row>
     <row r="30">
@@ -2603,19 +2603,19 @@
         <v>354667</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>331745</v>
+        <v>330224</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>376415</v>
+        <v>377914</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.5820446605218931</v>
+        <v>0.582044660521893</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.5444283680464725</v>
+        <v>0.541931190824932</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.6177363093590885</v>
+        <v>0.6201953478514227</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>622</v>
@@ -2624,19 +2624,19 @@
         <v>368499</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>348360</v>
+        <v>350349</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>385153</v>
+        <v>387714</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.6064024136377963</v>
+        <v>0.6064024136377965</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.5732621875463136</v>
+        <v>0.5765358607856808</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.6338088349582059</v>
+        <v>0.6380230940563444</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1011</v>
@@ -2645,19 +2645,19 @@
         <v>723166</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>696090</v>
+        <v>694581</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>753025</v>
+        <v>753611</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.5942068630455644</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.5719591641523863</v>
+        <v>0.5707196919277326</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.6187410634340018</v>
+        <v>0.6192231290801122</v>
       </c>
     </row>
     <row r="31">
@@ -2674,19 +2674,19 @@
         <v>175016</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>155687</v>
+        <v>154307</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>196212</v>
+        <v>197204</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2872195372000877</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2554977701900022</v>
+        <v>0.2532338472283404</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3220045867765485</v>
+        <v>0.3236328998063947</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>238</v>
@@ -2695,19 +2695,19 @@
         <v>153002</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>137583</v>
+        <v>135954</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>170759</v>
+        <v>168829</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2517804443236273</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2264072678783497</v>
+        <v>0.2237265281086682</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2810013977159704</v>
+        <v>0.2778247700241261</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>426</v>
@@ -2716,19 +2716,19 @@
         <v>328018</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>298965</v>
+        <v>302003</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>354688</v>
+        <v>356615</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.26952425049742</v>
+        <v>0.2695242504974201</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2456515432793218</v>
+        <v>0.2481483596362202</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.291438056481192</v>
+        <v>0.2930214431613298</v>
       </c>
     </row>
     <row r="32">
@@ -2745,19 +2745,19 @@
         <v>15711</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>9253</v>
+        <v>9345</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>25210</v>
+        <v>24395</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02578405078271374</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01518490805605686</v>
+        <v>0.015335758757135</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.04137157882371562</v>
+        <v>0.04003512197977899</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>12</v>
@@ -2766,19 +2766,19 @@
         <v>8252</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>4220</v>
+        <v>4205</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>13622</v>
+        <v>13760</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.01357974774141864</v>
+        <v>0.01357974774141865</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.00694493216632072</v>
+        <v>0.006919755666496158</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02241637656513014</v>
+        <v>0.02264410982990652</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>29</v>
@@ -2787,19 +2787,19 @@
         <v>23964</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>16629</v>
+        <v>16564</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>34379</v>
+        <v>34221</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01969025368483707</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01366366305971699</v>
+        <v>0.01360999587097681</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02824873420868972</v>
+        <v>0.02811817208697145</v>
       </c>
     </row>
     <row r="33">
@@ -2891,19 +2891,19 @@
         <v>2803</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1011</v>
+        <v>1085</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>6979</v>
+        <v>6320</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.006886553784545123</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.002482585436684427</v>
+        <v>0.002665099658283208</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.01714524899900259</v>
+        <v>0.01552485604511637</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>9</v>
@@ -2912,19 +2912,19 @@
         <v>5338</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>2547</v>
+        <v>2615</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>10239</v>
+        <v>9665</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01220210139825764</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.005822605389253275</v>
+        <v>0.00597886158417417</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.02340600704690849</v>
+        <v>0.02209475266778244</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>14</v>
@@ -2933,19 +2933,19 @@
         <v>8141</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>12627</v>
+        <v>13342</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.009639915736024785</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.005465111465581734</v>
+        <v>0.005426840196691312</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01495180365920495</v>
+        <v>0.01579816358938534</v>
       </c>
     </row>
     <row r="35">
@@ -2962,19 +2962,19 @@
         <v>43340</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>33204</v>
+        <v>34406</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>54626</v>
+        <v>54791</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1064660033309128</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.08156518737557521</v>
+        <v>0.08451984276840625</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1341888561497029</v>
+        <v>0.1345954061526731</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>126</v>
@@ -2983,19 +2983,19 @@
         <v>65127</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>55336</v>
+        <v>55028</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>75857</v>
+        <v>76039</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1488783854398665</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1264966394543654</v>
+        <v>0.1257906080689806</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1734057386421906</v>
+        <v>0.1738217079821149</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>187</v>
@@ -3004,19 +3004,19 @@
         <v>108467</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>93691</v>
+        <v>94409</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>124829</v>
+        <v>125546</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1284348854963479</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1109376816236282</v>
+        <v>0.1117878748394294</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1478088809129586</v>
+        <v>0.148657149328517</v>
       </c>
     </row>
     <row r="36">
@@ -3033,19 +3033,19 @@
         <v>242668</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>227348</v>
+        <v>225556</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>259837</v>
+        <v>259404</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.5961198667170808</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.5584849568968212</v>
+        <v>0.5540838338761964</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.6382954603361257</v>
+        <v>0.6372306604480954</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>469</v>
@@ -3054,19 +3054,19 @@
         <v>238721</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>223837</v>
+        <v>223951</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>255871</v>
+        <v>252942</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.5457046949707353</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.5116822993951226</v>
+        <v>0.5119429412581816</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.5849092042687386</v>
+        <v>0.5782136261940344</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>811</v>
@@ -3075,19 +3075,19 @@
         <v>481389</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>460369</v>
+        <v>458094</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>503722</v>
+        <v>502849</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.5700056775965452</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.5451164305424353</v>
+        <v>0.5424222779206367</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.5964500339431974</v>
+        <v>0.5954169383384292</v>
       </c>
     </row>
     <row r="37">
@@ -3104,19 +3104,19 @@
         <v>112367</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>99517</v>
+        <v>98020</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>129353</v>
+        <v>127388</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2760329045533933</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.244465110209335</v>
+        <v>0.2407872357736744</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3177589779929334</v>
+        <v>0.3129304522351326</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>210</v>
@@ -3125,19 +3125,19 @@
         <v>122097</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>107918</v>
+        <v>109661</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>136760</v>
+        <v>136205</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.2791085922874829</v>
+        <v>0.2791085922874828</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2466964187842285</v>
+        <v>0.2506789355771107</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3126268853612272</v>
+        <v>0.3113587412776039</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>364</v>
@@ -3146,19 +3146,19 @@
         <v>234464</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>215969</v>
+        <v>214047</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>254782</v>
+        <v>255271</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.277626057732913</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2557262845611437</v>
+        <v>0.2534497961140085</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3016841467402838</v>
+        <v>0.3022626331210346</v>
       </c>
     </row>
     <row r="38">
@@ -3175,19 +3175,19 @@
         <v>5900</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>2834</v>
+        <v>2792</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>11497</v>
+        <v>10955</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.0144946716140679</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.00696193476122461</v>
+        <v>0.00685749052414274</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.0282419796098243</v>
+        <v>0.02691148278347833</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>10</v>
@@ -3196,19 +3196,19 @@
         <v>6171</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>3086</v>
+        <v>3142</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>10968</v>
+        <v>10673</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.01410622590365785</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.007054931806037464</v>
+        <v>0.007181345516332235</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.02507146764167576</v>
+        <v>0.02439852149372844</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>18</v>
@@ -3217,19 +3217,19 @@
         <v>12071</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>7428</v>
+        <v>7698</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>18085</v>
+        <v>19948</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.01429346343816906</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.00879482339835666</v>
+        <v>0.009114710242507637</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.02141468770779494</v>
+        <v>0.02362035287491694</v>
       </c>
     </row>
     <row r="39">
@@ -3321,19 +3321,19 @@
         <v>3972</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1387</v>
+        <v>1691</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>7913</v>
+        <v>8659</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.01280588709629883</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.004469759835968287</v>
+        <v>0.005450458229078326</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.02550909196163411</v>
+        <v>0.02791596821261722</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>7</v>
@@ -3342,19 +3342,19 @@
         <v>4045</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1748</v>
+        <v>1729</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>7998</v>
+        <v>7538</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.008707015771558975</v>
+        <v>0.008707015771558973</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.003762336823481703</v>
+        <v>0.003722065644794788</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.01721432551296662</v>
+        <v>0.01622460415507649</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>13</v>
@@ -3363,19 +3363,19 @@
         <v>8018</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>4469</v>
+        <v>4278</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>13228</v>
+        <v>13855</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.01034802136967652</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.0057674832561208</v>
+        <v>0.005520791211219869</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.01707328263042625</v>
+        <v>0.01788203351681686</v>
       </c>
     </row>
     <row r="41">
@@ -3392,19 +3392,19 @@
         <v>28845</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>21816</v>
+        <v>21171</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>37971</v>
+        <v>37978</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.0929899641181227</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.07032985926295504</v>
+        <v>0.06824963320619885</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1224092931671252</v>
+        <v>0.1224299380899054</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>140</v>
@@ -3413,19 +3413,19 @@
         <v>68664</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>58732</v>
+        <v>59088</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>81622</v>
+        <v>79923</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1477881270384982</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.126412014461689</v>
+        <v>0.1271789119759914</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1756791819563499</v>
+        <v>0.1720221015827192</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>186</v>
@@ -3434,19 +3434,19 @@
         <v>97509</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>85350</v>
+        <v>84123</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>113069</v>
+        <v>111233</v>
       </c>
       <c r="U41" s="6" t="n">
-        <v>0.1258493822001004</v>
+        <v>0.1258493822001003</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1101559599037946</v>
+        <v>0.108573156721441</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1459318237734851</v>
+        <v>0.1435624589215752</v>
       </c>
     </row>
     <row r="42">
@@ -3463,19 +3463,19 @@
         <v>181758</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>167560</v>
+        <v>166109</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>197245</v>
+        <v>196371</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.5859433357305192</v>
+        <v>0.585943335730519</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.5401698225913359</v>
+        <v>0.5354937323321457</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.6358684108366106</v>
+        <v>0.6330492223859366</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>495</v>
@@ -3484,19 +3484,19 @@
         <v>248940</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>233986</v>
+        <v>233364</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>265223</v>
+        <v>263770</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.5358064256758873</v>
+        <v>0.5358064256758872</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.5036187187397759</v>
+        <v>0.5022812500451129</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.5708513043994374</v>
+        <v>0.5677254712602104</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>772</v>
@@ -3505,19 +3505,19 @@
         <v>430699</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>409762</v>
+        <v>409231</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>452938</v>
+        <v>452053</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.5558790123841779</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.5288568121599992</v>
+        <v>0.5281716911833274</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.584581958564787</v>
+        <v>0.5834390265542134</v>
       </c>
     </row>
     <row r="43">
@@ -3534,19 +3534,19 @@
         <v>89298</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>74980</v>
+        <v>75367</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>102872</v>
+        <v>102560</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>0.2878734434350727</v>
+        <v>0.2878734434350728</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.2417151583718977</v>
+        <v>0.242962563597218</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.3316345030813497</v>
+        <v>0.3306263658574711</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>224</v>
@@ -3555,19 +3555,19 @@
         <v>133500</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>118350</v>
+        <v>119399</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>147488</v>
+        <v>147982</v>
       </c>
       <c r="N43" s="6" t="n">
-        <v>0.2873384159377141</v>
+        <v>0.287338415937714</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.2547298382112843</v>
+        <v>0.2569880665572537</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.3174453378124177</v>
+        <v>0.3185095183136153</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>345</v>
@@ -3576,19 +3576,19 @@
         <v>222798</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>202390</v>
+        <v>203996</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>244539</v>
+        <v>243352</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.2875526171284207</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.2612138863852541</v>
+        <v>0.2632863916055016</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.3156130161583067</v>
+        <v>0.3140812035116617</v>
       </c>
     </row>
     <row r="44">
@@ -3605,19 +3605,19 @@
         <v>6324</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>2546</v>
+        <v>2828</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>11773</v>
+        <v>13123</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.02038736961998653</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.00820662047943993</v>
+        <v>0.009116610736270696</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.03795351230292034</v>
+        <v>0.04230482121661863</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>15</v>
@@ -3626,19 +3626,19 @@
         <v>9459</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>5596</v>
+        <v>5627</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>14557</v>
+        <v>15165</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.02036001557634142</v>
+        <v>0.02036001557634141</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.012045164508792</v>
+        <v>0.01211099538242463</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.03133223724400865</v>
+        <v>0.03264137825008522</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>23</v>
@@ -3647,19 +3647,19 @@
         <v>15784</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>10461</v>
+        <v>10235</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>22359</v>
+        <v>23275</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.02037096691762453</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.01350126031287797</v>
+        <v>0.01320991694167709</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.02885800094272021</v>
+        <v>0.03003983184864332</v>
       </c>
     </row>
     <row r="45">
@@ -3751,19 +3751,19 @@
         <v>33094</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>22618</v>
+        <v>22139</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>47189</v>
+        <v>47923</v>
       </c>
       <c r="G46" s="6" t="n">
-        <v>0.009367758161550695</v>
+        <v>0.009367758161550692</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.006402218561743029</v>
+        <v>0.006266679421409406</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.013357660016996</v>
+        <v>0.01356539488544056</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>58</v>
@@ -3772,19 +3772,19 @@
         <v>43037</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>33330</v>
+        <v>32472</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>56358</v>
+        <v>55160</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.01154031603038341</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.008937286668446591</v>
+        <v>0.008707347623177647</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.01511206140548445</v>
+        <v>0.01479081640069321</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>90</v>
@@ -3793,19 +3793,19 @@
         <v>76132</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>59766</v>
+        <v>60205</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>95681</v>
+        <v>93898</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.01048343825870404</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.008229902261629814</v>
+        <v>0.008290393234463803</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.01317541500110401</v>
+        <v>0.01292993581104928</v>
       </c>
     </row>
     <row r="47">
@@ -3822,19 +3822,19 @@
         <v>288477</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>253521</v>
+        <v>252239</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>326614</v>
+        <v>324120</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.08165777079076854</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.07176285938548119</v>
+        <v>0.07139982818632043</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.09245295516677859</v>
+        <v>0.09174678258955783</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>581</v>
@@ -3843,19 +3843,19 @@
         <v>383844</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>351103</v>
+        <v>353316</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>420936</v>
+        <v>419362</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.1029260273681421</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.09414684856144864</v>
+        <v>0.09474019843740915</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.1128722713764894</v>
+        <v>0.1124500888260736</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>869</v>
@@ -3864,19 +3864,19 @@
         <v>672321</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>621248</v>
+        <v>620484</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>721417</v>
+        <v>718172</v>
       </c>
       <c r="U47" s="6" t="n">
-        <v>0.09257972177993845</v>
+        <v>0.09257972177993844</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.08554689469524646</v>
+        <v>0.08544159748943453</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.09934033507830188</v>
+        <v>0.09889344938023192</v>
       </c>
     </row>
     <row r="48">
@@ -3893,19 +3893,19 @@
         <v>2062732</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>2003384</v>
+        <v>1996672</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>2131905</v>
+        <v>2125349</v>
       </c>
       <c r="G48" s="6" t="n">
-        <v>0.5838864902059502</v>
+        <v>0.5838864902059503</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.5670872292587379</v>
+        <v>0.5651873609584959</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.6034670298090892</v>
+        <v>0.6016110336228238</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>3181</v>
@@ -3914,19 +3914,19 @@
         <v>2159939</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>2108188</v>
+        <v>2107487</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>2216650</v>
+        <v>2214017</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.5791781962172482</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.5653014515633568</v>
+        <v>0.5651134466116252</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.5943848766271104</v>
+        <v>0.5936788847180346</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>5186</v>
@@ -3935,19 +3935,19 @@
         <v>4222671</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>4143038</v>
+        <v>4140899</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>4309050</v>
+        <v>4310389</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.5814686260053691</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.570503029723505</v>
+        <v>0.5702085169855746</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.5933630922606923</v>
+        <v>0.5935475511507365</v>
       </c>
     </row>
     <row r="49">
@@ -3964,19 +3964,19 @@
         <v>1066933</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>1000494</v>
+        <v>1008714</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>1121945</v>
+        <v>1128023</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.3020109729866096</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.2832044398877673</v>
+        <v>0.2855311834370107</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.3175830905795023</v>
+        <v>0.3193034740637945</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>1449</v>
@@ -3985,19 +3985,19 @@
         <v>1072784</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>1022634</v>
+        <v>1021791</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>1123668</v>
+        <v>1118606</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.2876622556809867</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.2742148350270092</v>
+        <v>0.2739888079861221</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.3013066322880341</v>
+        <v>0.2999492683683413</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>2431</v>
@@ -4006,19 +4006,19 @@
         <v>2139717</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>2059274</v>
+        <v>2060534</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>2217393</v>
+        <v>2219940</v>
       </c>
       <c r="U49" s="6" t="n">
-        <v>0.2946424335579387</v>
+        <v>0.2946424335579386</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.2835653685038646</v>
+        <v>0.2837388962464815</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.3053386167910741</v>
+        <v>0.3056893461178707</v>
       </c>
     </row>
     <row r="50">
@@ -4035,19 +4035,19 @@
         <v>81526</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>61712</v>
+        <v>61982</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>106364</v>
+        <v>103703</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.02307700785512112</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.01746843012587225</v>
+        <v>0.01754486620395429</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.03010789979872012</v>
+        <v>0.0293547314755099</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>86</v>
@@ -4056,19 +4056,19 @@
         <v>69713</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>55132</v>
+        <v>55515</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>86151</v>
+        <v>89368</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.01869320470323954</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.0147833112436965</v>
+        <v>0.0148860551626779</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.02310104197535099</v>
+        <v>0.02396360615556189</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>155</v>
@@ -4077,19 +4077,19 @@
         <v>151238</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>126093</v>
+        <v>127276</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>183850</v>
+        <v>182175</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.02082578039804989</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.01736318138302015</v>
+        <v>0.01752613044872984</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.02531643388367461</v>
+        <v>0.0250857928223592</v>
       </c>
     </row>
     <row r="51">
